--- a/main/inventory.xlsx
+++ b/main/inventory.xlsx
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GO\專案\go train\WeeklyInventory\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35568BBE-8B8C-4B02-AD7D-51B766C6E0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="3030" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>髮圈</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,18 +167,84 @@
   <si>
     <t>[擦手紙一箱
  洗髮精一箱
+]</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>04/27</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>&amp;[]</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>[沐浴乳一箱
+]</t>
+  </si>
+  <si>
+    <t>[沐浴乳一箱
+ 洗髮精一箱
+]</t>
+  </si>
+  <si>
+    <t>[沐浴乳一箱
+ 洗髮精一箱
+ 酒精一箱
+ 擦手紙一箱
+ 洗手乳一箱
+ 大捲衛生紙一箱
+]</t>
+  </si>
+  <si>
+    <t>[酒精一箱
+]</t>
+  </si>
+  <si>
+    <t>[酒精一箱,
+]</t>
+  </si>
+  <si>
+    <t>[沐浴乳一箱,
+ 洗髮精一箱,
+ 酒精一箱,
+]</t>
+  </si>
+  <si>
+    <t>[沐浴乳一箱,
+ 洗髮精一箱,
+ 酒精一箱,
+ 擦手紙一箱,
+ 洗手乳一箱,
+ 大捲衛生紙一箱,
+ 大垃圾袋一箱,
 ]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,19 +312,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,55 +357,55 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -353,120 +418,120 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
+<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <themeElements>
+    <clrScheme name="Office">
+      <dk1>
+        <sysClr val="windowText" lastClr="000000"/>
+      </dk1>
+      <lt1>
+        <sysClr val="window" lastClr="FFFFFF"/>
+      </lt1>
+      <dk2>
+        <srgbClr val="44546A"/>
+      </dk2>
+      <lt2>
+        <srgbClr val="E7E6E6"/>
+      </lt2>
+      <accent1>
+        <srgbClr val="5B9BD5"/>
+      </accent1>
+      <accent2>
+        <srgbClr val="ED7D31"/>
+      </accent2>
+      <accent3>
+        <srgbClr val="A5A5A5"/>
+      </accent3>
+      <accent4>
+        <srgbClr val="FFC000"/>
+      </accent4>
+      <accent5>
+        <srgbClr val="4472C4"/>
+      </accent5>
+      <accent6>
+        <srgbClr val="70AD47"/>
+      </accent6>
+      <hlink>
+        <srgbClr val="0563C1"/>
+      </hlink>
+      <folHlink>
+        <srgbClr val="954F72"/>
+      </folHlink>
+    </clrScheme>
+    <fontScheme name="Office">
+      <majorFont>
+        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="Yu Gothic Light"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="等线 Light"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Times New Roman"/>
+        <font script="Hebr" typeface="Times New Roman"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="MoolBoran"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Times New Roman"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </majorFont>
+      <minorFont>
+        <latin typeface="Calibri" panose="020F0502020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="Yu Gothic"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="等线"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Arial"/>
+        <font script="Hebr" typeface="Arial"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="DaunPenh"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Arial"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </minorFont>
+    </fontScheme>
+    <fmtScheme name="Office">
+      <fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -522,8 +587,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
+      </fillStyleLst>
+      <lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -545,8 +610,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
+      </lnStyleLst>
+      <effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -562,8 +627,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
+      </effectStyleLst>
+      <bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -600,17 +665,17 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
+      </bgFillStyleLst>
+    </fmtScheme>
+  </themeElements>
+  <objectDefaults/>
+  <extraClrSchemeLst/>
+  <extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
       <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
-  </a:extLst>
-</a:theme>
+  </extLst>
+</theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,23 +683,23 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" customWidth="1"/>
+    <col customWidth="true" max="1" min="1" width="18.140625"/>
+    <col customWidth="true" max="2" min="2" width="11.42578125"/>
+    <col bestFit="true" customWidth="true" max="4" min="3" width="11.5703125"/>
+    <col bestFit="true" customWidth="true" max="5" min="5" width="10"/>
+    <col bestFit="true" customWidth="true" max="6" min="6" width="9.42578125"/>
+    <col bestFit="true" customWidth="true" max="10" min="10" width="10"/>
+    <col customWidth="true" max="18" min="18" width="9.140625"/>
+    <col customWidth="true" max="20" min="20" width="12.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -645,7 +710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="19.5" customHeight="true">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -653,37 +718,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="21.75" customHeight="true">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C3" s="18" t="str">
         <f>DATEDIF(B3, D3, "d")&amp;"天"</f>
         <v>61天</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="1"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4" s="7">
         <f>IF(AND(B4&lt;&gt;"", D4&lt;&gt;""), B4-D4, "")</f>
         <v>-400</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -698,19 +763,19 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C19" si="0">IF(AND(B5&lt;&gt;"", D5&lt;&gt;""), B5-D5, "")</f>
         <v>0</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -725,19 +790,19 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -752,19 +817,19 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -779,24 +844,24 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -808,19 +873,19 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -835,19 +900,19 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -862,18 +927,19 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D11" s="7"/>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="H11" s="7"/>
@@ -888,18 +954,19 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15.75" customHeight="true">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="7"/>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="H12" s="7"/>
@@ -916,18 +983,19 @@
       <c r="T12" s="14"/>
       <c r="V12" s="14"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="7"/>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="H13" s="7"/>
@@ -942,18 +1010,19 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15.75" customHeight="true">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="7"/>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="H14" s="7"/>
@@ -968,7 +1037,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="13"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -977,7 +1046,6 @@
       </c>
       <c r="C15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -994,7 +1062,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="16.5">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1071,6 @@
       </c>
       <c r="C16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1020,7 +1087,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="16.5">
       <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
@@ -1048,7 +1115,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="13"/>
     </row>
-    <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="16.5">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1057,7 +1124,6 @@
       </c>
       <c r="C18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1074,7 +1140,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="13"/>
     </row>
-    <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="16.5">
       <c r="A19" s="10" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1149,6 @@
       </c>
       <c r="C19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1100,7 +1165,7 @@
       <c r="P19" s="9"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="16.5">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1114,7 +1179,7 @@
       <c r="P20" s="5"/>
       <c r="R20" s="13"/>
     </row>
-    <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="16.5">
       <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
@@ -1123,13 +1188,13 @@
       <c r="P21" s="5"/>
       <c r="R21" s="13"/>
     </row>
-    <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16.5">
       <c r="A22" s="19"/>
       <c r="C22" s="11"/>
       <c r="P22" s="5"/>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="16.5">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1139,28 +1204,28 @@
       <c r="P23" s="5"/>
       <c r="R23" s="13"/>
     </row>
-    <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="16.5">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="7"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="16.5">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="7"/>
       <c r="R25" s="13"/>
     </row>
-    <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="16.5">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="7"/>
       <c r="R26" s="13"/>
     </row>
-    <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="16.5">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1169,14 +1234,14 @@
       </c>
       <c r="R27" s="13"/>
     </row>
-    <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="16.5">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="7"/>
       <c r="R28" s="13"/>
     </row>
-    <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="16.5">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
@@ -1185,7 +1250,7 @@
       </c>
       <c r="R29" s="13"/>
     </row>
-    <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="16.5">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
@@ -1194,21 +1259,21 @@
       </c>
       <c r="R30" s="13"/>
     </row>
-    <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="16.5">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="7"/>
       <c r="R31" s="13"/>
     </row>
-    <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="16.5">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="7"/>
       <c r="R32" s="13"/>
     </row>
-    <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="16.5">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -1217,45 +1282,45 @@
       </c>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="16.5">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="7"/>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="16.5">
       <c r="A35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="7"/>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18">
       <c r="A38" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18">
       <c r="A39" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" s="10" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1350,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup r:id="rId1" orientation="portrait" paperSize="9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/main/inventory.xlsx
+++ b/main/inventory.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GO\專案\go train\WeeklyInventory\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Loosha\Desktop\Lukas\vscode\Datas\WeeklyInventory\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="3030" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>髮圈</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,110 +129,62 @@
     <t>7</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>廠商1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠商2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠商3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>廠商1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廠商2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>廠商3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>04/24</t>
+    <t>05/15</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>[擦手紙一箱
- 洗髮精一箱
+    <t>28</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>叫貨區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[廠商1]</t>
+  </si>
+  <si>
+    <t>[廠商2 擦手紙一箱,
+ 小捲衛生紙一箱,
 ]</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>04/27</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>&amp;[]</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>[沐浴乳一箱
-]</t>
-  </si>
-  <si>
-    <t>[沐浴乳一箱
- 洗髮精一箱
-]</t>
-  </si>
-  <si>
-    <t>[沐浴乳一箱
- 洗髮精一箱
- 酒精一箱
- 擦手紙一箱
- 洗手乳一箱
- 大捲衛生紙一箱
-]</t>
-  </si>
-  <si>
-    <t>[酒精一箱
-]</t>
-  </si>
-  <si>
-    <t>[酒精一箱,
-]</t>
-  </si>
-  <si>
-    <t>[沐浴乳一箱,
- 洗髮精一箱,
- 酒精一箱,
-]</t>
-  </si>
-  <si>
-    <t>[沐浴乳一箱,
- 洗髮精一箱,
- 酒精一箱,
- 擦手紙一箱,
- 洗手乳一箱,
- 大捲衛生紙一箱,
- 大垃圾袋一箱,
+    <t>[廠商3 髮圈一箱,
+ 綠茶一箱,
 ]</t>
   </si>
 </sst>
@@ -244,7 +196,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +254,16 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,8 +305,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -354,14 +319,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
@@ -395,13 +425,52 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="2" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="2" builtinId="28"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -684,7 +753,7 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -701,13 +770,13 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="19.5" customHeight="true">
@@ -723,16 +792,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C3" s="18" t="str">
         <f>DATEDIF(B3, D3, "d")&amp;"天"</f>
-        <v>61天</v>
+        <v>0天</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="J3" s="15"/>
     </row>
@@ -741,14 +810,14 @@
         <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7">
         <f>IF(AND(B4&lt;&gt;"", D4&lt;&gt;""), B4-D4, "")</f>
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -768,14 +837,14 @@
         <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" ref="C5:C19" si="0">IF(AND(B5&lt;&gt;"", D5&lt;&gt;""), B5-D5, "")</f>
         <v>0</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -790,23 +859,25 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -817,19 +888,19 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" ht="16.5" thickBot="true">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -849,80 +920,73 @@
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="H8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" ht="16.5" thickBot="true">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" ht="16.5" thickBot="true">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
@@ -932,50 +996,54 @@
         <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="7" t="str">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7">
         <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="H11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="29"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="12"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="true">
+    <row r="12" spans="1:22" ht="15.75" customHeight="true" thickBot="true">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="7" t="str">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7">
         <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="32"/>
       <c r="O12" s="7"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="7"/>
@@ -983,18 +1051,19 @@
       <c r="T12" s="14"/>
       <c r="V12" s="14"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5">
+    <row r="13" spans="1:22" ht="17.25" thickBot="true">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="7" t="str">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7">
         <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1015,48 +1084,54 @@
         <v>4</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="7" t="str">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7">
         <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+      <c r="H14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="29"/>
       <c r="O14" s="7"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="13"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5">
+    <row r="15" spans="1:22" ht="17.25" thickBot="true">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7" t="str">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7">
         <f t="shared" si="0"/>
-      </c>
-      <c r="D15" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="32"/>
       <c r="O15" s="7"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="7"/>
@@ -1092,14 +1167,14 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1120,12 +1195,15 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="7" t="str">
+        <v>36</v>
+      </c>
+      <c r="C18" s="7">
         <f t="shared" si="0"/>
-      </c>
-      <c r="D18" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9"/>
       <c r="H18" s="7"/>
@@ -1145,12 +1223,15 @@
         <v>0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="7" t="str">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7">
         <f t="shared" si="0"/>
-      </c>
-      <c r="D19" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9"/>
       <c r="G19" s="7"/>
@@ -1180,7 +1261,7 @@
       <c r="R20" s="13"/>
     </row>
     <row r="21" spans="1:18" ht="16.5">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="11"/>
@@ -1189,7 +1270,7 @@
       <c r="R21" s="13"/>
     </row>
     <row r="22" spans="1:18" ht="16.5">
-      <c r="A22" s="19"/>
+      <c r="A22" s="20"/>
       <c r="C22" s="11"/>
       <c r="P22" s="5"/>
       <c r="R22" s="13"/>
@@ -1327,8 +1408,11 @@
       <c r="B40" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A21:A22"/>
+    <mergeCell ref="H8:N9"/>
+    <mergeCell ref="H11:N12"/>
+    <mergeCell ref="H14:N15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E5:E6">
